--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -90,10 +90,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -101,12 +101,320 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.75</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>0.25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.75</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
